--- a/CASUAL/LA ONT/OLIMPO, SHARIE MAE.xlsx
+++ b/CASUAL/LA ONT/OLIMPO, SHARIE MAE.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>UT(0-2-59)</t>
+  </si>
+  <si>
+    <t>UT(0-0-47)</t>
   </si>
 </sst>
 </file>
@@ -605,6 +608,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -617,20 +629,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1086,7 +1089,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1129,7 +1132,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1193,7 +1196,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1253,7 +1256,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,7 +1322,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1382,7 +1385,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,7 +1483,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1542,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1607,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,7 +1650,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1722,7 +1725,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1911,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1974,7 +1977,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2035,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,7 +2101,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,7 +2157,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2229,7 +2232,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2272,7 +2275,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2338,7 +2341,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2394,7 +2397,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2495,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2555,7 +2558,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3004,7 +3007,7 @@
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <pane ySplit="3720" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3034,14 +3037,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3054,14 +3057,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3074,16 +3077,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3109,18 +3112,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3167,7 +3170,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>28.820999999999998</v>
+        <v>28.722999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3632,11 +3635,15 @@
       <c r="A32" s="39">
         <v>44682</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C32" s="13">
         <v>1.25</v>
       </c>
-      <c r="D32" s="38"/>
+      <c r="D32" s="38">
+        <v>9.8000000000000004E-2</v>
+      </c>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
       <c r="G32" s="13">
@@ -4906,17 +4913,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5013,15 +5020,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
-      <c r="E3">
-        <v>2</v>
-      </c>
+      <c r="E3"/>
       <c r="F3">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.373</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="34">

--- a/CASUAL/LA ONT/OLIMPO, SHARIE MAE.xlsx
+++ b/CASUAL/LA ONT/OLIMPO, SHARIE MAE.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>UT(0-0-47)</t>
+  </si>
+  <si>
+    <t>UT(0-0-6)</t>
+  </si>
+  <si>
+    <t>UT(0-0-12)</t>
   </si>
 </sst>
 </file>
@@ -3007,7 +3013,7 @@
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <pane ySplit="3720" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,7 +3176,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>28.722999999999999</v>
+        <v>28.686</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3727,11 +3733,15 @@
       <c r="A36" s="39">
         <v>44805</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C36" s="13">
         <v>1.25</v>
       </c>
-      <c r="D36" s="38"/>
+      <c r="D36" s="38">
+        <v>2.5000000000000008E-2</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
       <c r="G36" s="13">
@@ -3767,11 +3777,15 @@
       <c r="A38" s="39">
         <v>44866</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C38" s="13">
         <v>1.25</v>
       </c>
-      <c r="D38" s="38"/>
+      <c r="D38" s="38">
+        <v>1.2E-2</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
       <c r="G38" s="13">
@@ -5022,11 +5036,11 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>9.8000000000000004E-2</v>
+        <v>2.5000000000000008E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="34">

--- a/CASUAL/LA ONT/OLIMPO, SHARIE MAE.xlsx
+++ b/CASUAL/LA ONT/OLIMPO, SHARIE MAE.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t>UT(0-0-12)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>VL(6-0-0)</t>
+  </si>
+  <si>
+    <t>01/05,08-12/2024</t>
   </si>
 </sst>
 </file>
@@ -614,15 +623,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -635,11 +635,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1095,7 +1104,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1138,7 +1147,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,7 +1211,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1271,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,7 +1337,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1391,7 +1400,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1498,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1557,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1622,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1665,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,7 +1740,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1926,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +1992,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2050,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2116,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2172,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2247,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2290,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2356,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2403,7 +2412,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2501,7 +2510,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +2573,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2630,7 +2639,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K99" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K100" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3008,12 +3017,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K99"/>
+  <dimension ref="A2:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="3720" topLeftCell="A19" activePane="bottomLeft"/>
+      <pane ySplit="3720" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3043,14 +3052,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3063,14 +3072,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3083,16 +3092,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3118,18 +3127,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3176,7 +3185,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>28.686</v>
+        <v>25.186</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3186,7 +3195,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>46.25</v>
+        <v>48.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4068,13 +4077,15 @@
         <v>45231</v>
       </c>
       <c r="B51" s="20"/>
-      <c r="C51" s="13"/>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D51" s="38"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H51" s="38"/>
       <c r="I51" s="9"/>
@@ -4086,13 +4097,15 @@
         <v>45261</v>
       </c>
       <c r="B52" s="20"/>
-      <c r="C52" s="13"/>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D52" s="38"/>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H52" s="38"/>
       <c r="I52" s="9"/>
@@ -4100,8 +4113,8 @@
       <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="39">
-        <v>45292</v>
+      <c r="A53" s="47" t="s">
+        <v>66</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4119,11 +4132,15 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
-        <v>45323</v>
-      </c>
-      <c r="B54" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C54" s="13"/>
-      <c r="D54" s="38"/>
+      <c r="D54" s="38">
+        <v>6</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13" t="str">
@@ -4133,11 +4150,13 @@
       <c r="H54" s="38"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20"/>
+      <c r="K54" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4155,7 +4174,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4173,7 +4192,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4191,7 +4210,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4209,7 +4228,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4227,7 +4246,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4245,7 +4264,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4263,7 +4282,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4281,7 +4300,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="39">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4299,7 +4318,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4317,7 +4336,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4335,7 +4354,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4353,7 +4372,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4371,7 +4390,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4389,7 +4408,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4407,7 +4426,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4425,7 +4444,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4443,7 +4462,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4461,7 +4480,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4479,7 +4498,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4497,7 +4516,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4515,7 +4534,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4533,7 +4552,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4551,7 +4570,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4569,7 +4588,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4587,7 +4606,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4605,7 +4624,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4623,7 +4642,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4641,7 +4660,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4659,7 +4678,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4677,7 +4696,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4695,7 +4714,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4713,7 +4732,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4731,7 +4750,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4749,7 +4768,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4766,7 +4785,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="39"/>
+      <c r="A90" s="39">
+        <v>46388</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="38"/>
@@ -4910,34 +4931,50 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="42"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="38"/>
       <c r="E99" s="9"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="41" t="str">
+      <c r="F99" s="20"/>
+      <c r="G99" s="13" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H99" s="42"/>
+      <c r="H99" s="38"/>
       <c r="I99" s="9"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="15"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="20"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="40"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="41" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H100" s="42"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
